--- a/apps/es/resources/screen/ES102.xlsx
+++ b/apps/es/resources/screen/ES102.xlsx
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>es.views.es102_views.ES102</t>
+          <t>es.views.es102.ES102</t>
         </is>
       </c>
       <c r="D10" s="8" t="n"/>
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="C14" s="11" t="n">
-        <v>20250603105800</v>
+        <v>20250806090000</v>
       </c>
       <c r="D14" s="8" t="inlineStr">
         <is>
@@ -1660,6 +1660,7 @@
       <c r="T25" s="11" t="n"/>
     </row>
     <row r="26">
+      <c r="B26" s="1" t="n"/>
       <c r="C26" s="11" t="inlineStr">
         <is>
           <t>toolbar</t>
@@ -1868,6 +1869,7 @@
       <c r="P32" s="11" t="n"/>
     </row>
     <row r="33">
+      <c r="B33" s="1" t="n"/>
       <c r="C33" s="11" t="n"/>
       <c r="D33" s="11" t="inlineStr">
         <is>
@@ -1896,6 +1898,7 @@
       <c r="P33" s="11" t="n"/>
     </row>
     <row r="34">
+      <c r="B34" s="1" t="n"/>
       <c r="C34" s="11" t="n"/>
       <c r="D34" s="11" t="inlineStr">
         <is>
@@ -1932,6 +1935,7 @@
       <c r="P34" s="11" t="n"/>
     </row>
     <row r="35">
+      <c r="B35" s="1" t="n"/>
       <c r="C35" s="11" t="n"/>
       <c r="D35" s="11" t="inlineStr">
         <is>
@@ -1960,6 +1964,7 @@
       <c r="P35" s="11" t="n"/>
     </row>
     <row r="36">
+      <c r="B36" s="1" t="n"/>
       <c r="C36" s="11" t="n"/>
       <c r="D36" s="11" t="inlineStr">
         <is>
@@ -1992,6 +1997,7 @@
       <c r="P36" s="11" t="n"/>
     </row>
     <row r="37">
+      <c r="B37" s="1" t="n"/>
       <c r="C37" s="11" t="n"/>
       <c r="D37" s="11" t="inlineStr">
         <is>
@@ -2024,6 +2030,7 @@
       <c r="P37" s="11" t="n"/>
     </row>
     <row r="38">
+      <c r="B38" s="1" t="n"/>
       <c r="C38" s="11" t="n"/>
       <c r="D38" s="11" t="inlineStr">
         <is>
@@ -2056,6 +2063,7 @@
       <c r="P38" s="11" t="n"/>
     </row>
     <row r="39">
+      <c r="B39" s="1" t="n"/>
       <c r="C39" s="11" t="n"/>
       <c r="D39" s="11" t="inlineStr">
         <is>
@@ -2088,6 +2096,7 @@
       <c r="P39" s="11" t="n"/>
     </row>
     <row r="40">
+      <c r="B40" s="1" t="n"/>
       <c r="C40" s="11" t="n"/>
       <c r="D40" s="11" t="inlineStr">
         <is>
@@ -2120,6 +2129,7 @@
       <c r="P40" s="11" t="n"/>
     </row>
     <row r="41">
+      <c r="B41" s="1" t="n"/>
       <c r="C41" s="11" t="n"/>
       <c r="D41" s="11" t="inlineStr">
         <is>
@@ -2152,6 +2162,7 @@
       <c r="P41" s="11" t="n"/>
     </row>
     <row r="42">
+      <c r="B42" s="1" t="n"/>
       <c r="C42" s="11" t="n"/>
       <c r="D42" s="11" t="inlineStr">
         <is>
@@ -2180,6 +2191,7 @@
       <c r="P42" s="11" t="n"/>
     </row>
     <row r="43">
+      <c r="B43" s="1" t="n"/>
       <c r="C43" s="11" t="inlineStr">
         <is>
           <t>toolbar</t>
